--- a/data/trans_camb/P16B17-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B17-Provincia-trans_camb.xlsx
@@ -526,7 +526,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyas hormonas para la menopausia fueron recetadas</t>
+          <t>Mujeres cuyo tratamiento hormonal consumido para la menopausia fue recetado por el médico</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
